--- a/38_Tables_2/homework/18_5.xlsx
+++ b/38_Tables_2/homework/18_5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\OneDrive\Рабочий стол\Обработка электронных таблиц III\Задание 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\38_Tables_2\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDC05F-2CDA-46F3-9476-4B6C1428562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8796"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,18 +23,76 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+  <si>
+    <t>Робот может брать монеты только с тех клеток, где количество монет нечётно</t>
+  </si>
+  <si>
+    <t> из левой верхней клетки в правую нижнюю.</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>БЕРЁТ ТОЛЬКО НЕЧЁТНЫЕ!!!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -140,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -152,6 +211,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,16 +493,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>80</v>
       </c>
@@ -474,7 +536,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>77</v>
       </c>
@@ -507,7 +569,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>15</v>
       </c>
@@ -531,6 +593,9 @@
       </c>
       <c r="H3" s="7">
         <v>38</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -540,7 +605,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>30</v>
       </c>
@@ -573,7 +638,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>55</v>
       </c>
@@ -606,7 +671,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>31</v>
       </c>
@@ -630,6 +695,9 @@
       </c>
       <c r="H6" s="7">
         <v>84</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -639,7 +707,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>39</v>
       </c>
@@ -663,6 +731,12 @@
       </c>
       <c r="H7" s="7">
         <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -672,7 +746,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>35</v>
       </c>
@@ -696,6 +770,9 @@
       </c>
       <c r="H8" s="10">
         <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -705,6 +782,294 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>IF(MOD(A1,2)&lt;&gt;0,A1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <f>A10+IF(MOD(B1,2)&lt;&gt;0,B1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10+IF(MOD(C1,2)&lt;&gt;0,C1,0)</f>
+        <v>77</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:H10" si="0">C10+IF(MOD(D1,2)&lt;&gt;0,D1,0)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>A10+IF(MOD(A2,2)&lt;&gt;0,A2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="B11" s="6">
+        <f>MIN(B10,A11)+IF(MOD(B2,2)&lt;&gt;0,B2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="C11" s="6">
+        <f>MIN(C10,B11)+IF(MOD(C2,2)&lt;&gt;0,C2,0)</f>
+        <v>84</v>
+      </c>
+      <c r="D11" s="6">
+        <f>MIN(D10,C11)+IF(MOD(D2,2)&lt;&gt;0,D2,0)</f>
+        <v>84</v>
+      </c>
+      <c r="E11" s="6">
+        <f>MIN(E10,D11)+IF(MOD(E2,2)&lt;&gt;0,E2,0)</f>
+        <v>84</v>
+      </c>
+      <c r="F11" s="6">
+        <f>MIN(F10,E11)+IF(MOD(F2,2)&lt;&gt;0,F2,0)</f>
+        <v>84</v>
+      </c>
+      <c r="G11" s="6">
+        <f>MIN(G10,F11)+IF(MOD(G2,2)&lt;&gt;0,G2,0)</f>
+        <v>109</v>
+      </c>
+      <c r="H11" s="6">
+        <f>MIN(H10,G11)+IF(MOD(H2,2)&lt;&gt;0,H2,0)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>A11+IF(MOD(A3,2)&lt;&gt;0,A3,0)</f>
+        <v>92</v>
+      </c>
+      <c r="B12" s="6">
+        <f>MIN(B11,A12)+IF(MOD(B3,2)&lt;&gt;0,B3,0)</f>
+        <v>75</v>
+      </c>
+      <c r="C12" s="6">
+        <f>MIN(C11,B12)+IF(MOD(C3,2)&lt;&gt;0,C3,0)</f>
+        <v>126</v>
+      </c>
+      <c r="D12" s="6">
+        <f>MIN(D11,C12)+IF(MOD(D3,2)&lt;&gt;0,D3,0)</f>
+        <v>181</v>
+      </c>
+      <c r="E12" s="6">
+        <f>MIN(E11,D12)+IF(MOD(E3,2)&lt;&gt;0,E3,0)</f>
+        <v>84</v>
+      </c>
+      <c r="F12" s="6">
+        <f>MIN(F11,E12)+IF(MOD(F3,2)&lt;&gt;0,F3,0)</f>
+        <v>84</v>
+      </c>
+      <c r="G12" s="6">
+        <f>MIN(G11,F12)+IF(MOD(G3,2)&lt;&gt;0,G3,0)</f>
+        <v>129</v>
+      </c>
+      <c r="H12" s="6">
+        <f>MIN(H11,G12)+IF(MOD(H3,2)&lt;&gt;0,H3,0)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>A12+IF(MOD(A4,2)&lt;&gt;0,A4,0)</f>
+        <v>92</v>
+      </c>
+      <c r="B13" s="6">
+        <f>MIN(B12,A13)+IF(MOD(B4,2)&lt;&gt;0,B4,0)</f>
+        <v>75</v>
+      </c>
+      <c r="C13" s="6">
+        <f>MIN(C12,B13)+IF(MOD(C4,2)&lt;&gt;0,C4,0)</f>
+        <v>75</v>
+      </c>
+      <c r="D13" s="6">
+        <f>MIN(D12,C13)+IF(MOD(D4,2)&lt;&gt;0,D4,0)</f>
+        <v>75</v>
+      </c>
+      <c r="E13" s="6">
+        <f>MIN(E12,D13)+IF(MOD(E4,2)&lt;&gt;0,E4,0)</f>
+        <v>130</v>
+      </c>
+      <c r="F13" s="6">
+        <f>MIN(F12,E13)+IF(MOD(F4,2)&lt;&gt;0,F4,0)</f>
+        <v>147</v>
+      </c>
+      <c r="G13" s="6">
+        <f>MIN(G12,F13)+IF(MOD(G4,2)&lt;&gt;0,G4,0)</f>
+        <v>129</v>
+      </c>
+      <c r="H13" s="6">
+        <f>MIN(H12,G13)+IF(MOD(H4,2)&lt;&gt;0,H4,0)</f>
+        <v>132</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>A13+IF(MOD(A5,2)&lt;&gt;0,A5,0)</f>
+        <v>147</v>
+      </c>
+      <c r="B14" s="6">
+        <f>MIN(B13,A14)+IF(MOD(B5,2)&lt;&gt;0,B5,0)</f>
+        <v>75</v>
+      </c>
+      <c r="C14" s="6">
+        <f>MIN(C13,B14)+IF(MOD(C5,2)&lt;&gt;0,C5,0)</f>
+        <v>75</v>
+      </c>
+      <c r="D14" s="6">
+        <f>MIN(D13,C14)+IF(MOD(D5,2)&lt;&gt;0,D5,0)</f>
+        <v>108</v>
+      </c>
+      <c r="E14" s="6">
+        <f>MIN(E13,D14)+IF(MOD(E5,2)&lt;&gt;0,E5,0)</f>
+        <v>123</v>
+      </c>
+      <c r="F14" s="6">
+        <f>MIN(F13,E14)+IF(MOD(F5,2)&lt;&gt;0,F5,0)</f>
+        <v>123</v>
+      </c>
+      <c r="G14" s="6">
+        <f>MIN(G13,F14)+IF(MOD(G5,2)&lt;&gt;0,G5,0)</f>
+        <v>136</v>
+      </c>
+      <c r="H14" s="6">
+        <f>MIN(H13,G14)+IF(MOD(H5,2)&lt;&gt;0,H5,0)</f>
+        <v>132</v>
+      </c>
+      <c r="K14">
+        <v>143</v>
+      </c>
+      <c r="M14">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>A14+IF(MOD(A6,2)&lt;&gt;0,A6,0)</f>
+        <v>178</v>
+      </c>
+      <c r="B15" s="6">
+        <f>MIN(B14,A15)+IF(MOD(B6,2)&lt;&gt;0,B6,0)</f>
+        <v>106</v>
+      </c>
+      <c r="C15" s="6">
+        <f>MIN(C14,B15)+IF(MOD(C6,2)&lt;&gt;0,C6,0)</f>
+        <v>78</v>
+      </c>
+      <c r="D15" s="6">
+        <f>MIN(D14,C15)+IF(MOD(D6,2)&lt;&gt;0,D6,0)</f>
+        <v>78</v>
+      </c>
+      <c r="E15" s="6">
+        <f>MIN(E14,D15)+IF(MOD(E6,2)&lt;&gt;0,E6,0)</f>
+        <v>78</v>
+      </c>
+      <c r="F15" s="6">
+        <f>MIN(F14,E15)+IF(MOD(F6,2)&lt;&gt;0,F6,0)</f>
+        <v>78</v>
+      </c>
+      <c r="G15" s="6">
+        <f>MIN(G14,F15)+IF(MOD(G6,2)&lt;&gt;0,G6,0)</f>
+        <v>78</v>
+      </c>
+      <c r="H15" s="6">
+        <f>MIN(H14,G15)+IF(MOD(H6,2)&lt;&gt;0,H6,0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>A15+IF(MOD(A7,2)&lt;&gt;0,A7,0)</f>
+        <v>217</v>
+      </c>
+      <c r="B16" s="6">
+        <f>MIN(B15,A16)+IF(MOD(B7,2)&lt;&gt;0,B7,0)</f>
+        <v>189</v>
+      </c>
+      <c r="C16" s="6">
+        <f>MIN(C15,B16)+IF(MOD(C7,2)&lt;&gt;0,C7,0)</f>
+        <v>78</v>
+      </c>
+      <c r="D16" s="6">
+        <f>MIN(D15,C16)+IF(MOD(D7,2)&lt;&gt;0,D7,0)</f>
+        <v>78</v>
+      </c>
+      <c r="E16" s="6">
+        <f>MIN(E15,D16)+IF(MOD(E7,2)&lt;&gt;0,E7,0)</f>
+        <v>78</v>
+      </c>
+      <c r="F16" s="6">
+        <f>MIN(F15,E16)+IF(MOD(F7,2)&lt;&gt;0,F7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="G16" s="6">
+        <f>MIN(G15,F16)+IF(MOD(G7,2)&lt;&gt;0,G7,0)</f>
+        <v>175</v>
+      </c>
+      <c r="H16" s="6">
+        <f>MIN(H15,G16)+IF(MOD(H7,2)&lt;&gt;0,H7,0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>A16+IF(MOD(A8,2)&lt;&gt;0,A8,0)</f>
+        <v>252</v>
+      </c>
+      <c r="B17" s="6">
+        <f>MIN(B16,A17)+IF(MOD(B8,2)&lt;&gt;0,B8,0)</f>
+        <v>234</v>
+      </c>
+      <c r="C17" s="6">
+        <f>MIN(C16,B17)+IF(MOD(C8,2)&lt;&gt;0,C8,0)</f>
+        <v>78</v>
+      </c>
+      <c r="D17" s="6">
+        <f>MIN(D16,C17)+IF(MOD(D8,2)&lt;&gt;0,D8,0)</f>
+        <v>78</v>
+      </c>
+      <c r="E17" s="6">
+        <f>MIN(E16,D17)+IF(MOD(E8,2)&lt;&gt;0,E8,0)</f>
+        <v>85</v>
+      </c>
+      <c r="F17" s="6">
+        <f>MIN(F16,E17)+IF(MOD(F8,2)&lt;&gt;0,F8,0)</f>
+        <v>104</v>
+      </c>
+      <c r="G17" s="6">
+        <f>MIN(G16,F17)+IF(MOD(G8,2)&lt;&gt;0,G8,0)</f>
+        <v>104</v>
+      </c>
+      <c r="H17" s="6">
+        <f>MIN(H16,G17)+IF(MOD(H8,2)&lt;&gt;0,H8,0)</f>
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
